--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp10-Bmpr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp10-Bmpr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Bmpr1b</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,46 +543,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.5939599999999999</v>
+        <v>0.178715</v>
       </c>
       <c r="H2">
-        <v>1.78188</v>
+        <v>0.536145</v>
       </c>
       <c r="I2">
-        <v>0.298608010875292</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="J2">
-        <v>0.2986080108752921</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.394935666666667</v>
+        <v>0.09074700000000001</v>
       </c>
       <c r="N2">
-        <v>4.184807</v>
+        <v>0.272241</v>
       </c>
       <c r="O2">
-        <v>0.6387935784928049</v>
+        <v>0.04501122713837679</v>
       </c>
       <c r="P2">
-        <v>0.638793578492805</v>
+        <v>0.04501122713837678</v>
       </c>
       <c r="Q2">
-        <v>0.8285359885733333</v>
+        <v>0.016217850105</v>
       </c>
       <c r="R2">
-        <v>7.45682389716</v>
+        <v>0.145960650945</v>
       </c>
       <c r="S2">
-        <v>0.1907488798336462</v>
+        <v>0.004458330985385869</v>
       </c>
       <c r="T2">
-        <v>0.1907488798336463</v>
+        <v>0.004458330985385868</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +605,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.5939599999999999</v>
+        <v>0.178715</v>
       </c>
       <c r="H3">
-        <v>1.78188</v>
+        <v>0.536145</v>
       </c>
       <c r="I3">
-        <v>0.298608010875292</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="J3">
-        <v>0.2986080108752921</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,33 +623,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.7887676666666668</v>
+        <v>1.394935666666666</v>
       </c>
       <c r="N3">
-        <v>2.366303</v>
+        <v>4.184806999999999</v>
       </c>
       <c r="O3">
-        <v>0.361206421507195</v>
+        <v>0.6918990835593063</v>
       </c>
       <c r="P3">
-        <v>0.361206421507195</v>
+        <v>0.6918990835593063</v>
       </c>
       <c r="Q3">
-        <v>0.4684964432933333</v>
+        <v>0.2492959276683333</v>
       </c>
       <c r="R3">
-        <v>4.21646798964</v>
+        <v>2.243663349015</v>
       </c>
       <c r="S3">
-        <v>0.1078591310416458</v>
+        <v>0.06853212674049712</v>
       </c>
       <c r="T3">
-        <v>0.1078591310416458</v>
+        <v>0.06853212674049712</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -655,7 +658,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -664,16 +667,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.8239049999999999</v>
+        <v>0.178715</v>
       </c>
       <c r="H4">
-        <v>2.471715</v>
+        <v>0.536145</v>
       </c>
       <c r="I4">
-        <v>0.4142107771570602</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="J4">
-        <v>0.4142107771570602</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.394935666666667</v>
+        <v>0.5304143333333333</v>
       </c>
       <c r="N4">
-        <v>4.184807</v>
+        <v>1.591243</v>
       </c>
       <c r="O4">
-        <v>0.6387935784928049</v>
+        <v>0.263089689302317</v>
       </c>
       <c r="P4">
-        <v>0.638793578492805</v>
+        <v>0.263089689302317</v>
       </c>
       <c r="Q4">
-        <v>1.149294470445</v>
+        <v>0.09479299758166666</v>
       </c>
       <c r="R4">
-        <v>10.343650234005</v>
+        <v>0.8531369782349999</v>
       </c>
       <c r="S4">
-        <v>0.2645951845904443</v>
+        <v>0.02605885216473039</v>
       </c>
       <c r="T4">
-        <v>0.2645951845904443</v>
+        <v>0.02605885216473039</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +720,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8239049999999999</v>
+        <v>1.450498333333333</v>
       </c>
       <c r="H5">
-        <v>2.471715</v>
+        <v>4.351495</v>
       </c>
       <c r="I5">
-        <v>0.4142107771570602</v>
+        <v>0.8039104659046613</v>
       </c>
       <c r="J5">
-        <v>0.4142107771570602</v>
+        <v>0.8039104659046612</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.7887676666666668</v>
+        <v>0.09074700000000001</v>
       </c>
       <c r="N5">
-        <v>2.366303</v>
+        <v>0.272241</v>
       </c>
       <c r="O5">
-        <v>0.361206421507195</v>
+        <v>0.04501122713837679</v>
       </c>
       <c r="P5">
-        <v>0.361206421507195</v>
+        <v>0.04501122713837678</v>
       </c>
       <c r="Q5">
-        <v>0.649869624405</v>
+        <v>0.131628372255</v>
       </c>
       <c r="R5">
-        <v>5.848826619645</v>
+        <v>1.184655350295</v>
       </c>
       <c r="S5">
-        <v>0.1496155925666159</v>
+        <v>0.03618499657975302</v>
       </c>
       <c r="T5">
-        <v>0.1496155925666159</v>
+        <v>0.03618499657975301</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -779,25 +782,25 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5712309999999999</v>
+        <v>1.450498333333333</v>
       </c>
       <c r="H6">
-        <v>1.713693</v>
+        <v>4.351495</v>
       </c>
       <c r="I6">
-        <v>0.2871812119676476</v>
+        <v>0.8039104659046613</v>
       </c>
       <c r="J6">
-        <v>0.2871812119676476</v>
+        <v>0.8039104659046612</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,33 +809,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.394935666666667</v>
+        <v>1.394935666666666</v>
       </c>
       <c r="N6">
-        <v>4.184807</v>
+        <v>4.184806999999999</v>
       </c>
       <c r="O6">
-        <v>0.6387935784928049</v>
+        <v>0.6918990835593063</v>
       </c>
       <c r="P6">
-        <v>0.638793578492805</v>
+        <v>0.6918990835593063</v>
       </c>
       <c r="Q6">
-        <v>0.7968304958056667</v>
+        <v>2.023351859607222</v>
       </c>
       <c r="R6">
-        <v>7.171474462250999</v>
+        <v>18.21016673646499</v>
       </c>
       <c r="S6">
-        <v>0.1834495140687143</v>
+        <v>0.5562249146231701</v>
       </c>
       <c r="T6">
-        <v>0.1834495140687143</v>
+        <v>0.55622491462317</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -841,25 +844,25 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.5712309999999999</v>
+        <v>1.450498333333333</v>
       </c>
       <c r="H7">
-        <v>1.713693</v>
+        <v>4.351495</v>
       </c>
       <c r="I7">
-        <v>0.2871812119676476</v>
+        <v>0.8039104659046613</v>
       </c>
       <c r="J7">
-        <v>0.2871812119676476</v>
+        <v>0.8039104659046612</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +871,214 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.7887676666666668</v>
+        <v>0.5304143333333333</v>
       </c>
       <c r="N7">
-        <v>2.366303</v>
+        <v>1.591243</v>
       </c>
       <c r="O7">
-        <v>0.361206421507195</v>
+        <v>0.263089689302317</v>
       </c>
       <c r="P7">
-        <v>0.361206421507195</v>
+        <v>0.263089689302317</v>
       </c>
       <c r="Q7">
-        <v>0.4505685429976667</v>
+        <v>0.769365106476111</v>
       </c>
       <c r="R7">
-        <v>4.055116886979</v>
+        <v>6.924285958285</v>
       </c>
       <c r="S7">
-        <v>0.1037316978989332</v>
+        <v>0.2115005547017383</v>
       </c>
       <c r="T7">
-        <v>0.1037316978989332</v>
+        <v>0.2115005547017382</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.17509</v>
+      </c>
+      <c r="H8">
+        <v>0.52527</v>
+      </c>
+      <c r="I8">
+        <v>0.09704022420472538</v>
+      </c>
+      <c r="J8">
+        <v>0.09704022420472537</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.09074700000000001</v>
+      </c>
+      <c r="N8">
+        <v>0.272241</v>
+      </c>
+      <c r="O8">
+        <v>0.04501122713837679</v>
+      </c>
+      <c r="P8">
+        <v>0.04501122713837678</v>
+      </c>
+      <c r="Q8">
+        <v>0.01588889223</v>
+      </c>
+      <c r="R8">
+        <v>0.14300003007</v>
+      </c>
+      <c r="S8">
+        <v>0.004367899573237903</v>
+      </c>
+      <c r="T8">
+        <v>0.004367899573237902</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.17509</v>
+      </c>
+      <c r="H9">
+        <v>0.52527</v>
+      </c>
+      <c r="I9">
+        <v>0.09704022420472538</v>
+      </c>
+      <c r="J9">
+        <v>0.09704022420472537</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.394935666666666</v>
+      </c>
+      <c r="N9">
+        <v>4.184806999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.6918990835593063</v>
+      </c>
+      <c r="P9">
+        <v>0.6918990835593063</v>
+      </c>
+      <c r="Q9">
+        <v>0.2442392858766666</v>
+      </c>
+      <c r="R9">
+        <v>2.198153572889999</v>
+      </c>
+      <c r="S9">
+        <v>0.0671420421956391</v>
+      </c>
+      <c r="T9">
+        <v>0.0671420421956391</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.17509</v>
+      </c>
+      <c r="H10">
+        <v>0.52527</v>
+      </c>
+      <c r="I10">
+        <v>0.09704022420472538</v>
+      </c>
+      <c r="J10">
+        <v>0.09704022420472537</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.5304143333333333</v>
+      </c>
+      <c r="N10">
+        <v>1.591243</v>
+      </c>
+      <c r="O10">
+        <v>0.263089689302317</v>
+      </c>
+      <c r="P10">
+        <v>0.263089689302317</v>
+      </c>
+      <c r="Q10">
+        <v>0.09287024562333333</v>
+      </c>
+      <c r="R10">
+        <v>0.83583221061</v>
+      </c>
+      <c r="S10">
+        <v>0.02553028243584839</v>
+      </c>
+      <c r="T10">
+        <v>0.02553028243584838</v>
       </c>
     </row>
   </sheetData>
